--- a/chap03/HermiteTable.xlsx
+++ b/chap03/HermiteTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lty\ProgramFile\NumAnalysis\chap03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6464BBE7-3ADE-49BB-AC12-68407AA2A2D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB248FC-1585-4E73-A810-89119E42F2D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -348,10 +348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -361,12 +361,12 @@
     <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1">
         <v>0</v>
@@ -377,13 +377,16 @@
       <c r="E1" s="1">
         <v>0</v>
       </c>
+      <c r="F1" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -394,13 +397,16 @@
       <c r="E2" s="1">
         <v>0</v>
       </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -411,21 +417,47 @@
       <c r="E3" s="1">
         <v>0</v>
       </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
       <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
         <v>0</v>
       </c>
     </row>
